--- a/Country_Code.xlsx
+++ b/Country_Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\QNIA\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TEDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>Country_Code</t>
   </si>
@@ -484,6 +484,14 @@
   </si>
   <si>
     <t>OECD - Total</t>
+  </si>
+  <si>
+    <t>MLT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -864,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1162,463 +1170,474 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C27">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C38">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C39">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40">
-        <v>423</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C41">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43">
-        <v>534</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C47">
-        <v>715</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>115</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C48">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50">
-        <v>903</v>
+        <v>728</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C51">
-        <v>918</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C52">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62">
-        <v>961</v>
+        <v>946</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65">
-        <v>990</v>
+        <v>968</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C67">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>999</v>
       </c>
     </row>

--- a/Country_Code.xlsx
+++ b/Country_Code.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Country_Code</t>
   </si>
@@ -491,6 +491,10 @@
   </si>
   <si>
     <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OECD - Europe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -874,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -895,574 +899,574 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C17">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C20">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C21">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C22">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="C23">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C24">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C25">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C26">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="C27">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C28">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C29">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C30">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C31">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C32">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C33">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C34">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C35">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36">
-        <v>228</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>233</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C38">
-        <v>238</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C39">
-        <v>259</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C40">
-        <v>273</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C41">
-        <v>423</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C42">
-        <v>436</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C43">
-        <v>456</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C44">
-        <v>534</v>
+        <v>704</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45">
-        <v>536</v>
+        <v>715</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C46">
-        <v>542</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C47">
-        <v>555</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C48">
-        <v>715</v>
+        <v>728</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C49">
-        <v>727</v>
+        <v>903</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C50">
-        <v>728</v>
+        <v>907</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>117</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C51">
-        <v>903</v>
+        <v>918</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C53">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,149 +1504,153 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C57">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C58">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C60">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C61">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63">
-        <v>961</v>
+        <v>946</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C64">
-        <v>964</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66">
-        <v>990</v>
+        <v>964</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67">
-        <v>996</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C69">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>